--- a/PX/策划/背景介绍.xlsx
+++ b/PX/策划/背景介绍.xlsx
@@ -4,21 +4,22 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22488" windowHeight="9347"/>
+    <workbookView windowWidth="22488" windowHeight="9347" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="背景介绍" sheetId="1" r:id="rId1"/>
-    <sheet name="角色需求-中国" sheetId="2" r:id="rId2"/>
-    <sheet name="角色需求-女优" sheetId="3" r:id="rId3"/>
-    <sheet name="角色需求-物化" sheetId="4" r:id="rId4"/>
-    <sheet name="角色需求-影视" sheetId="5" r:id="rId5"/>
+    <sheet name="细节点记录" sheetId="6" r:id="rId2"/>
+    <sheet name="角色需求-中国" sheetId="2" r:id="rId3"/>
+    <sheet name="角色需求-女优" sheetId="3" r:id="rId4"/>
+    <sheet name="角色需求-物化" sheetId="4" r:id="rId5"/>
+    <sheet name="角色需求-影视" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="401">
   <si>
     <t>前言</t>
   </si>
@@ -60,6 +61,33 @@
   </si>
   <si>
     <t>可恶，我是一个要拥有全天下妹子的人！</t>
+  </si>
+  <si>
+    <t>在房间里点击妹子的时候，需要加上反馈：</t>
+  </si>
+  <si>
+    <t>1. 表情变化</t>
+  </si>
+  <si>
+    <t>2. 姿势变化</t>
+  </si>
+  <si>
+    <t>3. 语音变化</t>
+  </si>
+  <si>
+    <t>4. 谈话框内容变化</t>
+  </si>
+  <si>
+    <t>当点击妹子次数到达预设值的时候，屏幕会泛白，妹子会说一些暧昧不清的话</t>
+  </si>
+  <si>
+    <t>让妹子做指定的行为，当行为熟练值上升到指定数值时，会将扩展妹子新的行为动作</t>
+  </si>
+  <si>
+    <t>妹子与玩家的亲密度越高，讲的话越露骨</t>
+  </si>
+  <si>
+    <t>将两个妹子单独放在一个房间后，时间到达后，两个妹子会做羞羞的事情，并会邀请玩家，用谈话框的形式（哈哈哈哈过分了呀！但是我喜欢）</t>
   </si>
   <si>
     <t>编号</t>
@@ -1203,10 +1231,10 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1229,6 +1257,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -1245,21 +1280,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1280,6 +1309,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -1288,31 +1325,16 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1323,6 +1345,21 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1343,6 +1380,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1351,7 +1395,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1365,17 +1409,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1396,7 +1431,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1408,31 +1443,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1450,19 +1491,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1480,25 +1509,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1510,19 +1551,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1534,37 +1575,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1577,6 +1594,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1618,6 +1653,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1642,37 +1692,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1686,17 +1716,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1715,6 +1741,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1723,10 +1758,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1735,137 +1770,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1896,7 +1931,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2249,14 +2287,14 @@
   <sheetPr/>
   <dimension ref="B1:C27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" spans="2:2">
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="11" t="s">
         <v>0</v>
       </c>
     </row>
@@ -2333,6 +2371,71 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B3:B15"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="3" s="10" customFormat="1" spans="2:2">
+      <c r="B3" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" s="10" customFormat="1" spans="2:2">
+      <c r="B4" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" s="10" customFormat="1" spans="2:2">
+      <c r="B5" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" s="10" customFormat="1" spans="2:2">
+      <c r="B6" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" s="10" customFormat="1" spans="2:2">
+      <c r="B7" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" s="10" customFormat="1" spans="2:2">
+      <c r="B8" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" s="10" customFormat="1" spans="2:2">
+      <c r="B11" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" s="10" customFormat="1" spans="2:2">
+      <c r="B13" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" s="10" customFormat="1" spans="2:2">
+      <c r="B15" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E38"/>
@@ -2351,502 +2454,502 @@
   <sheetData>
     <row r="1" ht="17.4" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="4" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="4" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="4" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="4" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="4" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="4" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" ht="15" spans="1:5">
       <c r="A8" s="4" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="4" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="4" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="4" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="4" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="4" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="4" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="4" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="4" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="4" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="4" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="4" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="4" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="4" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="4" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="4" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="4" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="4" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="4" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="4" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="4" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="C28" s="6"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="4" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="C29" s="6"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="4" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="C30" s="6"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="4" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="C31" s="6"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="4" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="C32" s="6"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="4" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="C33" s="6"/>
       <c r="D33" s="5"/>
       <c r="E33" s="5" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="4" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="5"/>
       <c r="E34" s="5" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="4" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="C35" s="6"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="4" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="5"/>
       <c r="E36" s="5" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="4" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="C37" s="6"/>
       <c r="D37" s="5"/>
       <c r="E37" s="5" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="4" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="C38" s="6"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -2856,13 +2959,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -2875,470 +2978,470 @@
   <sheetData>
     <row r="1" ht="17.4" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="4" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="4" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="4" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="4" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="4" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="4" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" ht="15" spans="1:5">
       <c r="A8" s="4" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="4" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="4" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="4" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="4" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="4" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="4" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="4" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="4" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="4" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="4" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="4" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="4" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="4" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="4" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="4" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="6"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="4" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="B24" s="5"/>
       <c r="C24" s="6"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="4" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="6"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="4" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="B26" s="5"/>
       <c r="C26" s="6"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="4" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="B27" s="5"/>
       <c r="C27" s="6"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="4" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="B28" s="5"/>
       <c r="C28" s="6"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="4" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="B29" s="5"/>
       <c r="C29" s="6"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="4" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="B30" s="5"/>
       <c r="C30" s="6"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="4" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="B31" s="5"/>
       <c r="C31" s="6"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="4" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="B32" s="5"/>
       <c r="C32" s="6"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="4" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="B33" s="5"/>
       <c r="C33" s="6"/>
       <c r="D33" s="5"/>
       <c r="E33" s="5" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="4" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="B34" s="5"/>
       <c r="C34" s="6"/>
       <c r="D34" s="5"/>
       <c r="E34" s="5" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="4" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="B35" s="5"/>
       <c r="C35" s="6"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="4" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="B36" s="5"/>
       <c r="C36" s="6"/>
       <c r="D36" s="5"/>
       <c r="E36" s="5" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="4" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="B37" s="5"/>
       <c r="C37" s="6"/>
       <c r="D37" s="5"/>
       <c r="E37" s="5" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="4" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="B38" s="5"/>
       <c r="C38" s="6"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -3348,7 +3451,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E38"/>
@@ -3368,468 +3471,468 @@
   <sheetData>
     <row r="1" ht="17.4" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="4" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="4" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="4" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="4" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="4" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="4" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
     </row>
     <row r="8" ht="15" spans="1:5">
       <c r="A8" s="4" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="4" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="4" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="4" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="4" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="4" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="4" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="4" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="4" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="4" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="4" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="4" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="4" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="4" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="4" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="4" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="6"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="4" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="B24" s="5"/>
       <c r="C24" s="6"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="4" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="6"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="4" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="B26" s="5"/>
       <c r="C26" s="6"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="4" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="B27" s="5"/>
       <c r="C27" s="6"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="4" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="B28" s="5"/>
       <c r="C28" s="6"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="4" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="B29" s="5"/>
       <c r="C29" s="6"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="4" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="B30" s="5"/>
       <c r="C30" s="6"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="4" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="B31" s="5"/>
       <c r="C31" s="6"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="4" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="B32" s="5"/>
       <c r="C32" s="6"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="4" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="B33" s="5"/>
       <c r="C33" s="6"/>
       <c r="D33" s="5"/>
       <c r="E33" s="5" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="4" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="B34" s="5"/>
       <c r="C34" s="6"/>
       <c r="D34" s="5"/>
       <c r="E34" s="5" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="4" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="B35" s="5"/>
       <c r="C35" s="6"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="4" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="B36" s="5"/>
       <c r="C36" s="6"/>
       <c r="D36" s="5"/>
       <c r="E36" s="5" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="4" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="B37" s="5"/>
       <c r="C37" s="6"/>
       <c r="D37" s="5"/>
       <c r="E37" s="5" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="4" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="B38" s="5"/>
       <c r="C38" s="6"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
     </row>
   </sheetData>
@@ -3838,7 +3941,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E38"/>
@@ -3858,428 +3961,428 @@
   <sheetData>
     <row r="1" ht="17.4" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="4" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="6" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="4" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="6"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="4" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="6"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="4" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="6"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="4" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="7"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="4" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="7"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
     </row>
     <row r="8" ht="15" spans="1:5">
       <c r="A8" s="4" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="9"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="4" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="7"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="4" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="7"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="4" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="7"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="4" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="7"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="4" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="7"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="4" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="7"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="4" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="6"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="4" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="6"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="4" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="6"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="4" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="6"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5" t="s">
-        <v>351</v>
+        <v>360</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="4" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="6"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="4" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="6"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="4" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="6"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="4" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="B22" s="5"/>
       <c r="C22" s="6"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="4" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="6"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="4" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="B24" s="5"/>
       <c r="C24" s="6"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="4" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="6"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5" t="s">
-        <v>365</v>
+        <v>374</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="4" t="s">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="B26" s="5"/>
       <c r="C26" s="6"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="4" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="B27" s="5"/>
       <c r="C27" s="6"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="4" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="B28" s="5"/>
       <c r="C28" s="6"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="4" t="s">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="B29" s="5"/>
       <c r="C29" s="6"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="4" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="B30" s="5"/>
       <c r="C30" s="6"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5" t="s">
-        <v>375</v>
+        <v>384</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="4" t="s">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="B31" s="5"/>
       <c r="C31" s="6"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="4" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="B32" s="5"/>
       <c r="C32" s="6"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="4" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="B33" s="5"/>
       <c r="C33" s="6"/>
       <c r="D33" s="5"/>
       <c r="E33" s="5" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="4" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="B34" s="5"/>
       <c r="C34" s="6"/>
       <c r="D34" s="5"/>
       <c r="E34" s="5" t="s">
-        <v>383</v>
+        <v>392</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="4" t="s">
-        <v>384</v>
+        <v>393</v>
       </c>
       <c r="B35" s="5"/>
       <c r="C35" s="6"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="4" t="s">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="B36" s="5"/>
       <c r="C36" s="6"/>
       <c r="D36" s="5"/>
       <c r="E36" s="5" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="4" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="B37" s="5"/>
       <c r="C37" s="6"/>
       <c r="D37" s="5"/>
       <c r="E37" s="5" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="4" t="s">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="B38" s="5"/>
       <c r="C38" s="6"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
     </row>
   </sheetData>
